--- a/publipostage/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00259350</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Prevention of Central Venous Catheter Infections : Comparison of the Efficacy of Skin Disinfection With 5% Povidone Iodine in Alcoholic Solution Versus 0.25% Chlorhexidine, 0.025 Benzalkonium and 4% Benzylic Alcohol</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00219726</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00219752</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase With Age More Than 70, Diagnosis of CML is Being Performed Within 1 Year</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00461825</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Maintenance Neoral Compared to Bitherapy Neoral-Imurel or Neoral-CellCept in Renal Transplantation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00219752</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00219726</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase With Age More Than 70, Diagnosis of CML is Being Performed Within 1 Year</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,32 +645,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT01320384</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Clinical Effect of the Association of Noninvasive Ventilation and High Flow Nasal Oxygen Therapy in Resuscitation of Patients With Acute Lung Injury. A Randomised Study (FLORALI Study)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>FLORALI</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -657,24 +687,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02205632</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -686,32 +721,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00219739</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>A Phase III Prospective Randomized Comparison of Imatinib at a Dose of 400mg in Combination With Peg-Interferon-alpha2a (Peg-IFNa2a) or Cytarabine (Ara-C)Versus Imatinib at a Dose of 600mg Versus Imatinib a Dose of 400mg for Previously Untreated Chronic Myelogenous Leukemia (CML) in Chronic Phase</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>SPIRIT</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -723,24 +763,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT01823965</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -752,28 +797,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT01628237</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>ESTIMET</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -785,28 +835,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT03186144</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>CHARGE</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -818,28 +873,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT02703857</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>PROPHYLOXITINE</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -851,24 +911,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01292356</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT02797730</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EDUCARTPED</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -878,30 +947,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2010-019837-85</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>NCT02930382</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Étude de la toxicité cutanée du cétuximab (anti-Epidermal Growth Factor Receptor): recherche d’un lien entre la réponse inflammatoire cutanée et la réponse radiologique.</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BARODEF</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -913,58 +987,76 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02930382</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT02193737</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BARODEF</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Effects of Drinking at PACU Discharge After General Anaesthesia With Airway Control on Aspiration, Vomiting and Patients Comfort.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>I-DRINC</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01958996</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2010-019837-85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Étude de la toxicité cutanée du cétuximab (anti-Epidermal Growth Factor Receptor): recherche d’un lien entre la réponse inflammatoire cutanée et la réponse radiologique.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -975,66 +1067,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02797730</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01292356</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>EDUCARTPED</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT02193737</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01958996</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Effects of Drinking at PACU Discharge After General Anaesthesia With Airway Control on Aspiration, Vomiting and Patients Comfort.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-DRINC</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1045,28 +1135,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02515448</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
+          <t>2012-005263-27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>GENTAERO</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
+          <t>EVALUATION OF EARLY PRE-OPERATIVE INTRAVESICAL INSTILLATION OF MYTOMYCIN-C AFTER TRANSURETHRAL RESECTION OF BLADDER TUMOR COMPARED TO  EARLY POST-OPERATIVE INSTILLATION. A RANDOMIZED MULTICENTER STUDY. 
+ Evaluation de la mitomycine C en installation pré-opératoire immédiate (IPOI) des résections endoscopiques des tumeurs de vessie comparée à l’installation post-opératoire précoce (IPOP).Etude multicentrique randomisée.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1078,66 +1174,76 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT03447457</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT02725190</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NoSleepDiaph</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT03439644</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT02825121</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Physiological Upper Eyelid Laxity</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CurHaTOF</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1148,67 +1254,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02668458</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT02920281</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>FLORALI2</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>WEAN SLEEP 1</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2012-005263-27</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+          <t>NCT02869828</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>EVALUATION OF EARLY PRE-OPERATIVE INTRAVESICAL INSTILLATION OF MYTOMYCIN-C AFTER TRANSURETHRAL RESECTION OF BLADDER TUMOR COMPARED TO  EARLY POST-OPERATIVE INSTILLATION. A RANDOMIZED MULTICENTER STUDY. 
- Evaluation de la mitomycine C en installation pré-opératoire immédiate (IPOI) des résections endoscopiques des tumeurs de vessie comparée à l’installation post-opératoire précoce (IPOP).Etude multicentrique randomisée.</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="b">
-        <v>0</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TEMP CORE BLOC</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1219,32 +1330,33 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02717468</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT03367065</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>CLEARSIGHT</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PERFE-CT</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1256,95 +1368,114 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>NCT03223506</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02920281</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT03447457</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WEAN SLEEP 1</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
+          <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02825121</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02399709</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CurHaTOF</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ADDICSTATINE</t>
+        </is>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1355,33 +1486,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02725190</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02717468</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NoSleepDiaph</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CLEARSIGHT</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1392,28 +1528,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT03367065</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02821897</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PERFE-CT</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Value of Target-controlled Intravenous Anaesthesia (TCIVA) to Optimize Coverage of the Low Back Pain Territory in Patients With Chronic Refractory Postoperative Multifocal Low Back and Legpain</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AIVOC</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1425,65 +1570,79 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02399709</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT03439644</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ADDICSTATINE</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Physiological Upper Eyelid Laxity</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02869828</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02668458</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TEMP CORE BLOC</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FLORALI2</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1495,32 +1654,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02821897</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02515448</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Value of Target-controlled Intravenous Anaesthesia (TCIVA) to Optimize Coverage of the Low Back Pain Territory in Patients With Chronic Refractory Postoperative Multifocal Low Back and Legpain</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>AIVOC</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>GENTAERO</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1532,24 +1692,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT02110888</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT03198637</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1561,66 +1726,76 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT03025841</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT02941952</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>CEFTAREA</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CLEARPICCO</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02534974</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT03211676</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AGATE</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
+          <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>THERANOVA</t>
+        </is>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1631,28 +1806,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02941952</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02931227</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>CLEARPICCO</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TempCore</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1664,32 +1844,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT03634878</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT03644836</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PROMONOTECHO</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>REHABAAR</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1701,70 +1886,80 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT03644836</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT03747874</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>REHABAAR</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SAS-SB</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT03747874</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT03121482</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SAS-SB</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>HIGH-WEAN</t>
+        </is>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1775,62 +1970,76 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT03198637</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03634878</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="b">
-        <v>0</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PROMONOTECHO</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT03456557</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02534974</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>K-PA</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AGATE</t>
+        </is>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1841,69 +2050,71 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT03211676</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02110888</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>THERANOVA</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT03121482</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT03025841</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HIGH-WEAN</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
+          <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CEFTAREA</t>
+        </is>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1915,28 +2126,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02931227</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02320474</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TempCore</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ATTRACT</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1948,66 +2168,80 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02320474</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03456557</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ATTRACT</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>K-PA</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT03227965</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT03757143</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="b">
-        <v>0</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CLEAN3</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2018,107 +2252,118 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03250871</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT03227965</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PAINLESS</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
+          <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02978300</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT03537105</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FLORALI-IM</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SCLEROKINE</t>
+        </is>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02273661</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT03847740</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NEBULAMB</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MONITOF</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2129,70 +2374,80 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT03981042</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT03250871</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MONITURARE</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PAINLESS</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02964130</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02978300</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PREDIBACK</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FLORALI-IM</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2203,32 +2458,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03847740</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT03981042</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MONITOF</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MONITURARE</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2240,32 +2500,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02482883</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02964130</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TRIVASOSTIM</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>PREDIBACK</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2277,69 +2542,79 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03537105</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT02482883</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SCLEROKINE</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TRIVASOSTIM</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT03757143</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02273661</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CLEAN3</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+          <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NEBULAMB</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2351,136 +2626,156 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT03461094</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT03404427</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT03404427</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT04371965</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="b">
-        <v>0</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>KILLER</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT04371965</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02151695</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>KILLER</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
+          <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02265406</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03389984</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PROPHY-VAP</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
+          <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>IMPRA</t>
+        </is>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2491,32 +2786,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>NCT03566004</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>HEPYSTOOL</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2528,28 +2828,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NCT02334488</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2561,28 +2866,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03233984</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2594,66 +2904,76 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02151695</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT03461094</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT03389984</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02265406</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>IMPRA</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PROPHY-VAP</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2664,32 +2984,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT04391660</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03856983</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DACLEAN</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>LOARAL</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2701,32 +3026,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT04118725</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03374930</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SIROCO</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
+          <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2738,62 +3064,80 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT04978740</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT04118725</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="b">
-        <v>0</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SIROCO</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT05003024</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT04034797</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Sugamamdex</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="b">
-        <v>0</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NiCEPHORE</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2804,28 +3148,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03105921</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT03209843</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="b">
-        <v>0</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PERFECTO</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2837,32 +3190,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT03344263</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT04978740</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VISA</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
+          <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2874,32 +3228,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT04387955</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT04391660</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ACROVID</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>DACLEAN</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2911,70 +3270,80 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03209843</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03496285</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PERFECTO</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ACCUMBENS</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04034797</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT03344263</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NiCEPHORE</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>VISA</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2985,28 +3354,33 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02463617</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT05003024</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Sugamamdex</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3018,103 +3392,114 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03374930</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02463617</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT03496285</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT04227639</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ACCUMBENS</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TiP-Ex</t>
+        </is>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT03014583</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT03105921</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MULTIWAVE</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
+          <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3125,32 +3510,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT04227639</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03014583</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TiP-Ex</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
+          <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MULTIWAVE</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
       <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3162,66 +3552,80 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT03856983</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT04387955</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>LOARAL</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ACROVID</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT05231525</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT02703922</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="b">
-        <v>0</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Evaluation of a Diagnostic Strategy for Giant Cell Arteritis Based on Color Doppler Ultrasound of Temporal Arteries</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ECHORTON</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3232,136 +3636,152 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04971213</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT04387253</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT02703922</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT05231525</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Evaluation of a Diagnostic Strategy for Giant Cell Arteritis Based on Color Doppler Ultrasound of Temporal Arteries</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ECHORTON</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
+          <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT04387253</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT03560193</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="b">
-        <v>0</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CLEAN2</t>
+        </is>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03560193</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT04456972</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CLEAN2</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
+          <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3372,32 +3792,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT05158010</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT04792879</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ATHLETE</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CODOVEIN</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3409,32 +3834,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04792879</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT05224648</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CODOVEIN</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>DECURATOF 2</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3444,30 +3874,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2021-000304-38</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+          <t>NCT03497832</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="b">
-        <v>0</v>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Dyn24</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3479,32 +3918,33 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT05224648</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT04971213</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DECURATOF 2</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
+          <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3516,28 +3956,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT04456972</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT05158010</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="b">
-        <v>0</v>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ATHLETE</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3549,32 +3998,33 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT03497832</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
+          <t>2021-000304-38</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Dyn24</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
+          <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3586,32 +4036,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>NCT04936880</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Pilot Study on the Evaluation of the Effectiveness of a Virtual Reality Device on Anxiety During Procedural Sedation in Traumatology in Emergency Department</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>VIRTUAL DREAM</t>
         </is>
       </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3623,32 +4078,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT06533982</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT05064839</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>WOMEN-EX-MOD</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
+          <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>IMPACT</t>
+        </is>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3660,32 +4120,33 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT05064839</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03863041</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>IMPACT</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
+          <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3697,32 +4158,33 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT05404425</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT03481569</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>NIEPCE</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
+          <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3734,28 +4196,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03481569</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT05404425</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="b">
-        <v>0</v>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NIEPCE</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3767,28 +4238,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT03863041</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT06533982</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="b">
-        <v>0</v>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>WOMEN-EX-MOD</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3800,32 +4280,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>NCT05963672</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Assessment of Sleep Quality of Hospitalized Patients Treated With EEG-guided Protection Procedures: Application in Intensive Care Unit. (SleepScan)</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>SleepScan</t>
         </is>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3837,32 +4322,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>NCT05036772</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Daphné</t>
         </is>
       </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3874,32 +4364,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>NCT03444779</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Comparative Evaluation of Minimally Invasive "tibial Tuberoplasty" Surgical Technique Versus Conventional Open Surgery for Tibial Plateau Fractures (TUBERIMPACT Study)</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>TUBERIMPACT</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
       <c r="H99" t="b">
         <v>1</v>
       </c>
       <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3911,32 +4406,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>NCT03389997</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Assessement of Viral Shedding Duration After a Respiratory Tract Infection in Oncology and Hematology Patients</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>ONCOVIR</t>
         </is>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3948,32 +4448,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>NCT05610683</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>E-FLUX</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3985,20 +4490,25 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT01291537</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT01061047</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4010,21 +4520,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT01673542</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT00992615</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Comparison of 20-core vs 12-core Prostate Biopsy Diagnostic Performance in the Detection of Prostate Cancer</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4035,21 +4554,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT02424890</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT01059890</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4060,24 +4584,25 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT01629550</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT00845221</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>CLEAN</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4089,24 +4614,25 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NCT02142075</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NCT01675986</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>DAPTOREA</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4118,20 +4644,25 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT01061047</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT01673542</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4143,25 +4674,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCT00992615</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT01351142</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Comparison of 20-core vs 12-core Prostate Biopsy Diagnostic Performance in the Detection of Prostate Cancer</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4172,20 +4704,25 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NCT01059890</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NCT02545595</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4197,21 +4734,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NCT00845221</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT01537614</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="b">
-        <v>0</v>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>COLI-VLM</t>
+        </is>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4222,20 +4768,25 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NCT01675986</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT01291537</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="b">
         <v>0</v>
       </c>
       <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4247,21 +4798,30 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NCT02545595</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NCT01629550</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="b">
-        <v>0</v>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>CLEAN</t>
+        </is>
       </c>
       <c r="H112" t="b">
         <v>0</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4272,28 +4832,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCT01532401</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT02142075</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Simplification of the Test of Sensibility in the Salt: Preliminary Study at the Child and the Adult</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>PLADSEL</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>DAPTOREA</t>
+        </is>
       </c>
       <c r="H113" t="b">
         <v>0</v>
       </c>
       <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4305,20 +4866,25 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NCT01351142</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NCT01872546</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="b">
         <v>0</v>
       </c>
       <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4330,21 +4896,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCT01872546</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NCT02424890</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -4355,21 +4926,34 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT01060891</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT01532401</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="b">
-        <v>0</v>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Simplification of the Test of Sensibility in the Salt: Preliminary Study at the Child and the Adult</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PLADSEL</t>
+        </is>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4380,24 +4964,25 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NCT01537614</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NCT00779922</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>COLI-VLM</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4409,20 +4994,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NCT00779922</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NCT01711060</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4434,21 +5024,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NCT01711060</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NCT01060891</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4459,24 +5054,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>NCT01061073</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Tamsulosin (Alpha Blockers) Compared to Phloroglucinol in Improving JJ Ureteral Stent Tolerance. A Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="b">
         <v>0</v>
       </c>
       <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4488,20 +5088,25 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>NCT01649726</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -677,6 +702,11 @@
       </c>
       <c r="J6" t="b">
         <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -712,6 +742,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -753,6 +788,11 @@
       </c>
       <c r="J8" t="b">
         <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -788,6 +828,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -826,6 +871,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -864,6 +914,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,6 +957,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -940,6 +1000,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -978,6 +1043,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1020,6 +1090,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1058,6 +1133,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1092,6 +1168,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1126,6 +1207,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1165,6 +1251,7 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1207,6 +1294,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1245,6 +1337,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1283,6 +1380,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1321,6 +1423,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1359,6 +1466,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1397,6 +1509,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1435,6 +1552,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1477,6 +1599,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1519,6 +1646,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1561,6 +1693,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1603,6 +1740,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1645,6 +1787,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1682,6 +1829,11 @@
       </c>
       <c r="J32" t="b">
         <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1717,6 +1869,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1755,6 +1912,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1797,6 +1959,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1835,6 +2002,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1877,6 +2049,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1919,6 +2096,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1961,6 +2143,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2003,6 +2190,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2040,6 +2232,11 @@
       </c>
       <c r="J41" t="b">
         <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2075,6 +2272,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2117,6 +2319,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2159,6 +2366,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2201,6 +2413,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2243,6 +2460,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2281,6 +2503,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2323,6 +2550,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2365,6 +2597,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2407,6 +2644,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2449,6 +2691,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2491,6 +2738,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2533,6 +2785,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2575,6 +2832,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2617,6 +2879,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2655,6 +2922,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2697,6 +2969,11 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2735,6 +3012,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2777,6 +3059,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2819,6 +3106,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2857,6 +3149,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2895,6 +3192,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2933,6 +3235,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2975,6 +3282,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3017,6 +3329,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3055,6 +3372,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3097,6 +3419,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3139,6 +3466,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3181,6 +3513,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3219,6 +3556,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3261,6 +3603,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3303,6 +3650,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3345,6 +3697,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3383,6 +3740,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3421,6 +3783,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3463,6 +3830,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3501,6 +3873,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3543,6 +3920,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3585,6 +3967,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3627,6 +4014,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3665,6 +4057,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3703,6 +4100,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3745,6 +4147,11 @@
       <c r="J83" t="b">
         <v>1</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3783,6 +4190,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3825,6 +4237,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3867,6 +4284,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3909,6 +4331,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3947,6 +4374,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3989,6 +4421,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4027,6 +4464,7 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4069,6 +4507,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4111,6 +4554,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4149,6 +4597,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4187,6 +4640,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4229,6 +4687,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4271,6 +4734,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4313,6 +4781,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4355,6 +4828,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4397,6 +4875,11 @@
       <c r="J99" t="b">
         <v>1</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4439,6 +4922,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4480,6 +4968,11 @@
       </c>
       <c r="J101" t="b">
         <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4511,6 +5004,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4544,6 +5042,11 @@
       </c>
       <c r="J103" t="b">
         <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4575,6 +5078,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4605,6 +5113,11 @@
       <c r="J105" t="b">
         <v>1</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4635,6 +5148,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4665,6 +5183,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4695,6 +5218,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4725,6 +5253,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4758,6 +5291,11 @@
       </c>
       <c r="J110" t="b">
         <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4789,6 +5327,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4823,6 +5366,11 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4856,6 +5404,11 @@
       </c>
       <c r="J113" t="b">
         <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -4887,6 +5440,11 @@
       <c r="J114" t="b">
         <v>0</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4917,6 +5475,11 @@
       <c r="J115" t="b">
         <v>1</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4954,6 +5517,11 @@
       </c>
       <c r="J116" t="b">
         <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -4985,6 +5553,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5015,6 +5588,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5045,6 +5623,11 @@
       <c r="J119" t="b">
         <v>1</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5078,6 +5661,11 @@
       </c>
       <c r="J120" t="b">
         <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5109,6 +5697,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
